--- a/database/industries/palayesh/shavan/cost/yearly.xlsx
+++ b/database/industries/palayesh/shavan/cost/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\palayesh\shavan\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shavan\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8B73D5-6538-4AAD-9E8C-1FE94495FC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شاوان-پالایش نفت لاوان</t>
@@ -192,7 +193,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,7 +363,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -374,7 +375,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -421,6 +422,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -456,6 +474,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -607,7 +642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -944,7 +979,7 @@
         <v>16161483</v>
       </c>
       <c r="I19" s="11">
-        <v>29059601</v>
+        <v>21664768</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">

--- a/database/industries/palayesh/shavan/cost/yearly.xlsx
+++ b/database/industries/palayesh/shavan/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shavan\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shavan\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8B73D5-6538-4AAD-9E8C-1FE94495FC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32C3570-6B24-4496-9D32-98FD8602CB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="58">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -106,6 +106,9 @@
     <t>ماده افزودنی ، MTBE</t>
   </si>
   <si>
+    <t>بشکه</t>
+  </si>
+  <si>
     <t>میعانات گازی</t>
   </si>
   <si>
@@ -149,6 +152,9 @@
   </si>
   <si>
     <t>نرخ خرید طی دوره</t>
+  </si>
+  <si>
+    <t>بشکه / ریال</t>
   </si>
   <si>
     <t>نرخ مصرف طی دوره</t>
@@ -647,12 +653,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -662,7 +668,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -674,7 +680,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -686,7 +692,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -696,7 +702,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -708,7 +714,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -720,7 +726,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -730,7 +736,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -752,7 +758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -762,95 +768,95 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>34291881</v>
+        <v>70838623</v>
       </c>
       <c r="F10" s="9">
-        <v>70838623</v>
+        <v>111607448</v>
       </c>
       <c r="G10" s="9">
-        <v>111607448</v>
+        <v>118711894</v>
       </c>
       <c r="H10" s="9">
-        <v>118711894</v>
+        <v>291636991</v>
       </c>
       <c r="I10" s="9">
-        <v>291636991</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>397618039</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>434218</v>
+        <v>471386</v>
       </c>
       <c r="F11" s="11">
-        <v>471386</v>
+        <v>675279</v>
       </c>
       <c r="G11" s="11">
-        <v>675279</v>
+        <v>945158</v>
       </c>
       <c r="H11" s="11">
-        <v>945158</v>
+        <v>1609796</v>
       </c>
       <c r="I11" s="11">
-        <v>1609796</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2712877</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>1397850</v>
+        <v>2157257</v>
       </c>
       <c r="F12" s="9">
-        <v>2157257</v>
+        <v>2420355</v>
       </c>
       <c r="G12" s="9">
-        <v>2420355</v>
+        <v>3630214</v>
       </c>
       <c r="H12" s="9">
-        <v>3630214</v>
+        <v>6913801</v>
       </c>
       <c r="I12" s="9">
-        <v>6913801</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10230267</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>36123949</v>
+        <v>73467266</v>
       </c>
       <c r="F13" s="13">
-        <v>73467266</v>
+        <v>114703082</v>
       </c>
       <c r="G13" s="13">
-        <v>114703082</v>
+        <v>123287266</v>
       </c>
       <c r="H13" s="13">
-        <v>123287266</v>
+        <v>300160588</v>
       </c>
       <c r="I13" s="13">
-        <v>300160588</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>410561183</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -863,60 +869,60 @@
         <v>0</v>
       </c>
       <c r="G14" s="9">
-        <v>0</v>
+        <v>-2294130</v>
       </c>
       <c r="H14" s="9">
-        <v>-2294130</v>
+        <v>0</v>
       </c>
       <c r="I14" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>36123949</v>
+        <v>73467266</v>
       </c>
       <c r="F15" s="13">
-        <v>73467266</v>
+        <v>114703082</v>
       </c>
       <c r="G15" s="13">
-        <v>114703082</v>
+        <v>120993136</v>
       </c>
       <c r="H15" s="13">
-        <v>120993136</v>
+        <v>300160588</v>
       </c>
       <c r="I15" s="13">
-        <v>300160588</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>410561183</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-103358</v>
+        <v>55846</v>
       </c>
       <c r="F16" s="9">
-        <v>55846</v>
+        <v>-187395</v>
       </c>
       <c r="G16" s="9">
-        <v>-187395</v>
+        <v>-9139</v>
       </c>
       <c r="H16" s="9">
-        <v>-9139</v>
+        <v>-325372</v>
       </c>
       <c r="I16" s="9">
-        <v>-325372</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-367292</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -938,95 +944,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>36020591</v>
+        <v>73523112</v>
       </c>
       <c r="F18" s="15">
-        <v>73523112</v>
+        <v>114515687</v>
       </c>
       <c r="G18" s="15">
-        <v>114515687</v>
+        <v>120983997</v>
       </c>
       <c r="H18" s="15">
-        <v>120983997</v>
+        <v>299835216</v>
       </c>
       <c r="I18" s="15">
-        <v>299835216</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>410193891</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>2676894</v>
+        <v>2400351</v>
       </c>
       <c r="F19" s="11">
-        <v>2400351</v>
+        <v>11553762</v>
       </c>
       <c r="G19" s="11">
-        <v>11553762</v>
+        <v>16161483</v>
       </c>
       <c r="H19" s="11">
-        <v>16161483</v>
+        <v>21664768</v>
       </c>
       <c r="I19" s="11">
-        <v>21664768</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27381432</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-2400350</v>
+        <v>-11553763</v>
       </c>
       <c r="F20" s="9">
-        <v>-11553763</v>
+        <v>-16161483</v>
       </c>
       <c r="G20" s="9">
-        <v>-16161483</v>
+        <v>-21664768</v>
       </c>
       <c r="H20" s="9">
-        <v>-21664768</v>
+        <v>-27381432</v>
       </c>
       <c r="I20" s="9">
-        <v>-27381432</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-21696644</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>36297135</v>
+        <v>64369700</v>
       </c>
       <c r="F21" s="13">
-        <v>64369700</v>
+        <v>109907966</v>
       </c>
       <c r="G21" s="13">
-        <v>109907966</v>
+        <v>115480712</v>
       </c>
       <c r="H21" s="13">
-        <v>115480712</v>
+        <v>294118552</v>
       </c>
       <c r="I21" s="13">
-        <v>294118552</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>415878679</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1048,29 +1054,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>36297135</v>
+        <v>64369700</v>
       </c>
       <c r="F23" s="13">
-        <v>64369700</v>
+        <v>109907966</v>
       </c>
       <c r="G23" s="13">
-        <v>109907966</v>
+        <v>115480712</v>
       </c>
       <c r="H23" s="13">
-        <v>115480712</v>
+        <v>294118552</v>
       </c>
       <c r="I23" s="13">
-        <v>294118552</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>415878679</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1080,7 +1086,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1090,7 +1096,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1100,7 +1106,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1122,7 +1128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1132,7 +1138,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1149,91 +1155,91 @@
       <c r="G29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>26</v>
+      <c r="H29" s="9">
+        <v>25741</v>
       </c>
       <c r="I29" s="9">
-        <v>25741</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15315</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>26</v>
+      <c r="F30" s="11">
+        <v>0</v>
       </c>
       <c r="G30" s="11">
-        <v>0</v>
+        <v>1683</v>
       </c>
       <c r="H30" s="11">
-        <v>1683</v>
-      </c>
-      <c r="I30" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>26</v>
+      <c r="E31" s="9">
+        <v>79345</v>
       </c>
       <c r="F31" s="9">
-        <v>79345</v>
+        <v>35752</v>
       </c>
       <c r="G31" s="9">
-        <v>35752</v>
+        <v>40817</v>
       </c>
       <c r="H31" s="9">
-        <v>40817</v>
+        <v>116983</v>
       </c>
       <c r="I31" s="9">
-        <v>116983</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>86136</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
-        <v>26</v>
+      <c r="E32" s="11">
+        <v>27531</v>
       </c>
       <c r="F32" s="11">
-        <v>27531</v>
+        <v>35618</v>
       </c>
       <c r="G32" s="11">
-        <v>35618</v>
-      </c>
-      <c r="H32" s="11">
         <v>14869</v>
       </c>
+      <c r="H32" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I32" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
@@ -1242,39 +1248,39 @@
       <c r="F33" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" s="9">
-        <v>0</v>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>0</v>
+        <v>106876</v>
       </c>
       <c r="F34" s="13">
-        <v>106876</v>
+        <v>71370</v>
       </c>
       <c r="G34" s="13">
-        <v>71370</v>
+        <v>57369</v>
       </c>
       <c r="H34" s="13">
-        <v>57369</v>
+        <v>142724</v>
       </c>
       <c r="I34" s="13">
-        <v>142724</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>101451</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1284,7 +1290,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1294,7 +1300,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1304,9 +1310,9 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1326,7 +1332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1336,7 +1342,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>24</v>
       </c>
@@ -1353,91 +1359,91 @@
       <c r="G40" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H40" s="9" t="s">
-        <v>26</v>
+      <c r="H40" s="9">
+        <v>1820321</v>
       </c>
       <c r="I40" s="9">
-        <v>1820321</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1596048</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F41" s="11" t="s">
-        <v>26</v>
+      <c r="F41" s="11">
+        <v>18959</v>
       </c>
       <c r="G41" s="11">
-        <v>18959</v>
+        <v>0</v>
       </c>
       <c r="H41" s="11">
-        <v>0</v>
-      </c>
-      <c r="I41" s="11">
         <v>6334</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I41" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="9"/>
-      <c r="E42" s="9" t="s">
-        <v>26</v>
+      <c r="E42" s="9">
+        <v>1406011</v>
       </c>
       <c r="F42" s="9">
-        <v>1406011</v>
+        <v>1124992</v>
       </c>
       <c r="G42" s="9">
-        <v>1124992</v>
+        <v>983491</v>
       </c>
       <c r="H42" s="9">
-        <v>983491</v>
+        <v>1206971</v>
       </c>
       <c r="I42" s="9">
-        <v>1206971</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1342630</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="11"/>
-      <c r="E43" s="11" t="s">
-        <v>26</v>
+      <c r="E43" s="11">
+        <v>1619043</v>
       </c>
       <c r="F43" s="11">
-        <v>1619043</v>
+        <v>1726437</v>
       </c>
       <c r="G43" s="11">
-        <v>1726437</v>
-      </c>
-      <c r="H43" s="11">
         <v>1628278</v>
       </c>
+      <c r="H43" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I43" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
@@ -1446,39 +1452,39 @@
       <c r="F44" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G44" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H44" s="9">
-        <v>0</v>
+      <c r="G44" s="9">
+        <v>0</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13">
-        <v>0</v>
+        <v>3025054</v>
       </c>
       <c r="F45" s="13">
-        <v>3025054</v>
+        <v>2870388</v>
       </c>
       <c r="G45" s="13">
-        <v>2870388</v>
+        <v>2611769</v>
       </c>
       <c r="H45" s="13">
-        <v>2611769</v>
+        <v>3033626</v>
       </c>
       <c r="I45" s="13">
-        <v>3033626</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2938678</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1488,7 +1494,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1498,7 +1504,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1508,9 +1514,9 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -1530,7 +1536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1540,7 +1546,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>24</v>
       </c>
@@ -1557,91 +1563,91 @@
       <c r="G51" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H51" s="9" t="s">
-        <v>26</v>
+      <c r="H51" s="9">
+        <v>1830747</v>
       </c>
       <c r="I51" s="9">
-        <v>1830747</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1553018</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F52" s="11" t="s">
-        <v>26</v>
+      <c r="F52" s="11">
+        <v>17276</v>
       </c>
       <c r="G52" s="11">
-        <v>17276</v>
+        <v>1683</v>
       </c>
       <c r="H52" s="11">
-        <v>1683</v>
-      </c>
-      <c r="I52" s="11">
         <v>4937</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I52" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
-        <v>26</v>
+      <c r="E53" s="9">
+        <v>1449604</v>
       </c>
       <c r="F53" s="9">
-        <v>1449604</v>
+        <v>1119927</v>
       </c>
       <c r="G53" s="9">
-        <v>1119927</v>
+        <v>907325</v>
       </c>
       <c r="H53" s="9">
-        <v>907325</v>
+        <v>1237818</v>
       </c>
       <c r="I53" s="9">
-        <v>1237818</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1319296</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
-        <v>26</v>
+      <c r="E54" s="11">
+        <v>1610956</v>
       </c>
       <c r="F54" s="11">
-        <v>1610956</v>
+        <v>1747186</v>
       </c>
       <c r="G54" s="11">
-        <v>1747186</v>
-      </c>
-      <c r="H54" s="11">
         <v>1617406</v>
       </c>
+      <c r="H54" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I54" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
@@ -1650,39 +1656,39 @@
       <c r="F55" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G55" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H55" s="9">
-        <v>0</v>
+      <c r="G55" s="9">
+        <v>0</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>0</v>
+        <v>3060560</v>
       </c>
       <c r="F56" s="13">
-        <v>3060560</v>
+        <v>2884389</v>
       </c>
       <c r="G56" s="13">
-        <v>2884389</v>
+        <v>2526414</v>
       </c>
       <c r="H56" s="13">
-        <v>2526414</v>
+        <v>3073502</v>
       </c>
       <c r="I56" s="13">
-        <v>3073502</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2872314</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1692,7 +1698,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1702,7 +1708,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1712,9 +1718,9 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -1734,7 +1740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1744,7 +1750,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>24</v>
       </c>
@@ -1761,91 +1767,91 @@
       <c r="G62" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H62" s="9" t="s">
-        <v>26</v>
+      <c r="H62" s="9">
+        <v>15315</v>
       </c>
       <c r="I62" s="9">
-        <v>15315</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>58345</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F63" s="11" t="s">
-        <v>26</v>
+      <c r="F63" s="11">
+        <v>1683</v>
       </c>
       <c r="G63" s="11">
-        <v>1683</v>
+        <v>0</v>
       </c>
       <c r="H63" s="11">
-        <v>0</v>
-      </c>
-      <c r="I63" s="11">
         <v>1397</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I63" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="9"/>
-      <c r="E64" s="9" t="s">
-        <v>26</v>
+      <c r="E64" s="9">
+        <v>35752</v>
       </c>
       <c r="F64" s="9">
-        <v>35752</v>
+        <v>40817</v>
       </c>
       <c r="G64" s="9">
-        <v>40817</v>
+        <v>116983</v>
       </c>
       <c r="H64" s="9">
-        <v>116983</v>
+        <v>86136</v>
       </c>
       <c r="I64" s="9">
-        <v>86136</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>109470</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="11"/>
-      <c r="E65" s="11" t="s">
-        <v>26</v>
+      <c r="E65" s="11">
+        <v>35618</v>
       </c>
       <c r="F65" s="11">
-        <v>35618</v>
+        <v>14869</v>
       </c>
       <c r="G65" s="11">
-        <v>14869</v>
-      </c>
-      <c r="H65" s="11">
         <v>25741</v>
       </c>
+      <c r="H65" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I65" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9" t="s">
@@ -1854,39 +1860,39 @@
       <c r="F66" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G66" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H66" s="9">
-        <v>0</v>
+      <c r="G66" s="9">
+        <v>0</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="I66" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13">
-        <v>0</v>
+        <v>71370</v>
       </c>
       <c r="F67" s="13">
-        <v>71370</v>
+        <v>57369</v>
       </c>
       <c r="G67" s="13">
-        <v>57369</v>
+        <v>142724</v>
       </c>
       <c r="H67" s="13">
-        <v>142724</v>
+        <v>102848</v>
       </c>
       <c r="I67" s="13">
-        <v>102848</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>167815</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1896,7 +1902,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1906,7 +1912,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1916,9 +1922,9 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -1938,7 +1944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1948,12 +1954,12 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
@@ -1965,91 +1971,91 @@
       <c r="G73" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H73" s="9" t="s">
-        <v>26</v>
+      <c r="H73" s="9">
+        <v>1230723</v>
       </c>
       <c r="I73" s="9">
-        <v>1230723</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1486802</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F74" s="11" t="s">
-        <v>26</v>
+      <c r="F74" s="11">
+        <v>0</v>
       </c>
       <c r="G74" s="11">
-        <v>0</v>
+        <v>84942</v>
       </c>
       <c r="H74" s="11">
-        <v>84942</v>
-      </c>
-      <c r="I74" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C75" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9">
+        <v>906510</v>
+      </c>
+      <c r="F75" s="9">
+        <v>787453</v>
+      </c>
+      <c r="G75" s="9">
+        <v>1134236</v>
+      </c>
+      <c r="H75" s="9">
+        <v>5323523</v>
+      </c>
+      <c r="I75" s="9">
+        <v>7874425</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11">
+        <v>304114</v>
+      </c>
+      <c r="F76" s="11">
+        <v>860307</v>
+      </c>
+      <c r="G76" s="11">
+        <v>437602</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F75" s="9">
-        <v>906510</v>
-      </c>
-      <c r="G75" s="9">
-        <v>787453</v>
-      </c>
-      <c r="H75" s="9">
-        <v>1134236</v>
-      </c>
-      <c r="I75" s="9">
-        <v>5323523</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F76" s="11">
-        <v>304114</v>
-      </c>
-      <c r="G76" s="11">
-        <v>860307</v>
-      </c>
-      <c r="H76" s="11">
-        <v>437602</v>
-      </c>
-      <c r="I76" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="C77" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
@@ -2058,39 +2064,39 @@
       <c r="F77" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G77" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H77" s="9">
-        <v>0</v>
+      <c r="G77" s="9">
+        <v>0</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="I77" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
-        <v>0</v>
+        <v>1210624</v>
       </c>
       <c r="F78" s="13">
-        <v>1210624</v>
+        <v>1647760</v>
       </c>
       <c r="G78" s="13">
-        <v>1647760</v>
+        <v>1656780</v>
       </c>
       <c r="H78" s="13">
-        <v>1656780</v>
+        <v>6554246</v>
       </c>
       <c r="I78" s="13">
-        <v>6554246</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9361227</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2100,7 +2106,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2110,7 +2116,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2120,9 +2126,9 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -2142,7 +2148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2152,12 +2158,12 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
@@ -2169,91 +2175,91 @@
       <c r="G84" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H84" s="9" t="s">
-        <v>26</v>
+      <c r="H84" s="9">
+        <v>177984726</v>
       </c>
       <c r="I84" s="9">
-        <v>177984726</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>226380611</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F85" s="11" t="s">
-        <v>26</v>
+      <c r="F85" s="11">
+        <v>1144758</v>
       </c>
       <c r="G85" s="11">
-        <v>1144758</v>
+        <v>0</v>
       </c>
       <c r="H85" s="11">
-        <v>0</v>
-      </c>
-      <c r="I85" s="11">
         <v>960986</v>
       </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I85" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C86" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9">
+        <v>31809254</v>
+      </c>
+      <c r="F86" s="9">
+        <v>42811846</v>
+      </c>
+      <c r="G86" s="9">
+        <v>45486145</v>
+      </c>
+      <c r="H86" s="9">
+        <v>115710373</v>
+      </c>
+      <c r="I86" s="9">
+        <v>184896870</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B87" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11">
+        <v>39466504</v>
+      </c>
+      <c r="F87" s="11">
+        <v>68220557</v>
+      </c>
+      <c r="G87" s="11">
+        <v>78123216</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I87" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B88" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F86" s="9">
-        <v>31809254</v>
-      </c>
-      <c r="G86" s="9">
-        <v>42811846</v>
-      </c>
-      <c r="H86" s="9">
-        <v>45486145</v>
-      </c>
-      <c r="I86" s="9">
-        <v>115710373</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F87" s="11">
-        <v>39466504</v>
-      </c>
-      <c r="G87" s="11">
-        <v>68220557</v>
-      </c>
-      <c r="H87" s="11">
-        <v>78123216</v>
-      </c>
-      <c r="I87" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="C88" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9" t="s">
@@ -2262,39 +2268,39 @@
       <c r="F88" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G88" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H88" s="9">
-        <v>0</v>
+      <c r="G88" s="9">
+        <v>0</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="I88" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13">
-        <v>0</v>
+        <v>71275758</v>
       </c>
       <c r="F89" s="13">
-        <v>71275758</v>
+        <v>112177161</v>
       </c>
       <c r="G89" s="13">
-        <v>112177161</v>
+        <v>123609361</v>
       </c>
       <c r="H89" s="13">
-        <v>123609361</v>
+        <v>294656085</v>
       </c>
       <c r="I89" s="13">
-        <v>294656085</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>411277481</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2304,7 +2310,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2314,7 +2320,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2324,9 +2330,9 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -2346,7 +2352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2356,12 +2362,12 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9" t="s">
@@ -2373,91 +2379,91 @@
       <c r="G95" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H95" s="9" t="s">
-        <v>26</v>
+      <c r="H95" s="9">
+        <v>177728647</v>
       </c>
       <c r="I95" s="9">
-        <v>177728647</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>219616613</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F96" s="11" t="s">
-        <v>26</v>
+      <c r="F96" s="11">
+        <v>1043359</v>
       </c>
       <c r="G96" s="11">
-        <v>1043359</v>
+        <v>84942</v>
       </c>
       <c r="H96" s="11">
-        <v>84942</v>
-      </c>
-      <c r="I96" s="11">
         <v>748873</v>
       </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I96" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C97" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9">
+        <v>31928312</v>
+      </c>
+      <c r="F97" s="9">
+        <v>42066146</v>
+      </c>
+      <c r="G97" s="9">
+        <v>41296857</v>
+      </c>
+      <c r="H97" s="9">
+        <v>113159471</v>
+      </c>
+      <c r="I97" s="9">
+        <v>178001426</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B98" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11">
+        <v>38910311</v>
+      </c>
+      <c r="F98" s="11">
+        <v>68497943</v>
+      </c>
+      <c r="G98" s="11">
+        <v>77330095</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I98" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B99" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F97" s="9">
-        <v>31928312</v>
-      </c>
-      <c r="G97" s="9">
-        <v>42066146</v>
-      </c>
-      <c r="H97" s="9">
-        <v>41296857</v>
-      </c>
-      <c r="I97" s="9">
-        <v>113159471</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B98" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F98" s="11">
-        <v>38910311</v>
-      </c>
-      <c r="G98" s="11">
-        <v>68497943</v>
-      </c>
-      <c r="H98" s="11">
-        <v>77330095</v>
-      </c>
-      <c r="I98" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="C99" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9" t="s">
@@ -2466,39 +2472,39 @@
       <c r="F99" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G99" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H99" s="9">
-        <v>0</v>
+      <c r="G99" s="9">
+        <v>0</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="I99" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
-        <v>0</v>
+        <v>70838623</v>
       </c>
       <c r="F100" s="13">
-        <v>70838623</v>
+        <v>111607448</v>
       </c>
       <c r="G100" s="13">
-        <v>111607448</v>
+        <v>118711894</v>
       </c>
       <c r="H100" s="13">
-        <v>118711894</v>
+        <v>291636991</v>
       </c>
       <c r="I100" s="13">
-        <v>291636991</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>397618039</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2508,7 +2514,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2518,7 +2524,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2528,9 +2534,9 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B104" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -2550,7 +2556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2560,12 +2566,12 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9" t="s">
@@ -2577,91 +2583,91 @@
       <c r="G106" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H106" s="9" t="s">
-        <v>26</v>
+      <c r="H106" s="9">
+        <v>1486802</v>
       </c>
       <c r="I106" s="9">
-        <v>1486802</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8250800</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F107" s="11" t="s">
-        <v>26</v>
+      <c r="F107" s="11">
+        <v>101399</v>
       </c>
       <c r="G107" s="11">
-        <v>101399</v>
+        <v>0</v>
       </c>
       <c r="H107" s="11">
-        <v>0</v>
-      </c>
-      <c r="I107" s="11">
         <v>212113</v>
       </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I107" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C108" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9">
+        <v>787452</v>
+      </c>
+      <c r="F108" s="9">
+        <v>1533153</v>
+      </c>
+      <c r="G108" s="9">
+        <v>5323524</v>
+      </c>
+      <c r="H108" s="9">
+        <v>7874425</v>
+      </c>
+      <c r="I108" s="9">
+        <v>14769869</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B109" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11">
+        <v>860307</v>
+      </c>
+      <c r="F109" s="11">
+        <v>582921</v>
+      </c>
+      <c r="G109" s="11">
+        <v>1230723</v>
+      </c>
+      <c r="H109" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I109" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B110" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F108" s="9">
-        <v>787452</v>
-      </c>
-      <c r="G108" s="9">
-        <v>1533153</v>
-      </c>
-      <c r="H108" s="9">
-        <v>5323524</v>
-      </c>
-      <c r="I108" s="9">
-        <v>7874425</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B109" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F109" s="11">
-        <v>860307</v>
-      </c>
-      <c r="G109" s="11">
-        <v>582921</v>
-      </c>
-      <c r="H109" s="11">
-        <v>1230723</v>
-      </c>
-      <c r="I109" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="C110" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9" t="s">
@@ -2670,39 +2676,39 @@
       <c r="F110" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G110" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H110" s="9">
-        <v>0</v>
+      <c r="G110" s="9">
+        <v>0</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="I110" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13">
-        <v>0</v>
+        <v>1647759</v>
       </c>
       <c r="F111" s="13">
-        <v>1647759</v>
+        <v>2217473</v>
       </c>
       <c r="G111" s="13">
-        <v>2217473</v>
+        <v>6554247</v>
       </c>
       <c r="H111" s="13">
-        <v>6554247</v>
+        <v>9573340</v>
       </c>
       <c r="I111" s="13">
-        <v>9573340</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23020669</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2712,7 +2718,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2722,7 +2728,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2732,9 +2738,9 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -2754,7 +2760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2764,12 +2770,12 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9" t="s">
@@ -2781,19 +2787,19 @@
       <c r="G117" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H117" s="9" t="s">
-        <v>26</v>
+      <c r="H117" s="9">
+        <v>47811779</v>
       </c>
       <c r="I117" s="9">
-        <v>47811779</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+        <v>97081423</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11" t="s">
@@ -2802,65 +2808,65 @@
       <c r="F118" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G118" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H118" s="11">
+      <c r="G118" s="11">
         <v>50470588</v>
       </c>
+      <c r="H118" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I118" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D119" s="9"/>
-      <c r="E119" s="9" t="s">
-        <v>26</v>
+      <c r="E119" s="9">
+        <v>11424917</v>
       </c>
       <c r="F119" s="9">
-        <v>11424917</v>
+        <v>22025425</v>
       </c>
       <c r="G119" s="9">
-        <v>22025425</v>
+        <v>27788323</v>
       </c>
       <c r="H119" s="9">
-        <v>27788323</v>
+        <v>45506809</v>
       </c>
       <c r="I119" s="9">
-        <v>45506809</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+        <v>91418513</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D120" s="11"/>
-      <c r="E120" s="11" t="s">
-        <v>26</v>
+      <c r="E120" s="11">
+        <v>11046239</v>
       </c>
       <c r="F120" s="11">
-        <v>11046239</v>
+        <v>24153714</v>
       </c>
       <c r="G120" s="11">
-        <v>24153714</v>
-      </c>
-      <c r="H120" s="11">
         <v>29430493</v>
       </c>
+      <c r="H120" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I120" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -2870,7 +2876,7 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2880,7 +2886,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -2890,9 +2896,9 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B124" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -2912,7 +2918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -2922,12 +2928,12 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9" t="s">
@@ -2939,86 +2945,86 @@
       <c r="G126" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H126" s="9" t="s">
-        <v>26</v>
+      <c r="H126" s="9">
+        <v>97776560</v>
       </c>
       <c r="I126" s="9">
-        <v>97776560</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+        <v>141838222</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D127" s="11"/>
       <c r="E127" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F127" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G127" s="11">
+      <c r="F127" s="11">
         <v>60380716</v>
       </c>
-      <c r="H127" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I127" s="11">
+      <c r="G127" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H127" s="11">
         <v>151718661</v>
       </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I127" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D128" s="9"/>
-      <c r="E128" s="9" t="s">
-        <v>26</v>
+      <c r="E128" s="9">
+        <v>22623759</v>
       </c>
       <c r="F128" s="9">
-        <v>22623759</v>
+        <v>38055245</v>
       </c>
       <c r="G128" s="9">
-        <v>38055245</v>
+        <v>46249681</v>
       </c>
       <c r="H128" s="9">
-        <v>46249681</v>
+        <v>95868395</v>
       </c>
       <c r="I128" s="9">
-        <v>95868395</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+        <v>137712452</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D129" s="11"/>
-      <c r="E129" s="11" t="s">
-        <v>26</v>
+      <c r="E129" s="11">
+        <v>24376440</v>
       </c>
       <c r="F129" s="11">
-        <v>24376440</v>
+        <v>39515231</v>
       </c>
       <c r="G129" s="11">
-        <v>39515231</v>
-      </c>
-      <c r="H129" s="11">
         <v>47979040</v>
       </c>
+      <c r="H129" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I129" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3028,7 +3034,7 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3038,7 +3044,7 @@
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3048,9 +3054,9 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B133" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -3070,7 +3076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3080,12 +3086,12 @@
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9" t="s">
@@ -3097,86 +3103,86 @@
       <c r="G135" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H135" s="9" t="s">
-        <v>26</v>
+      <c r="H135" s="9">
+        <v>97079852</v>
       </c>
       <c r="I135" s="9">
-        <v>97079852</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+        <v>141412793</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F136" s="11" t="s">
-        <v>26</v>
+      <c r="F136" s="11">
+        <v>60393552</v>
       </c>
       <c r="G136" s="11">
-        <v>60393552</v>
+        <v>50470588</v>
       </c>
       <c r="H136" s="11">
-        <v>50470588</v>
-      </c>
-      <c r="I136" s="11">
         <v>151685842</v>
       </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I136" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D137" s="9"/>
-      <c r="E137" s="9" t="s">
-        <v>26</v>
+      <c r="E137" s="9">
+        <v>22025541</v>
       </c>
       <c r="F137" s="9">
-        <v>22025541</v>
+        <v>37561507</v>
       </c>
       <c r="G137" s="9">
-        <v>37561507</v>
+        <v>45514956</v>
       </c>
       <c r="H137" s="9">
-        <v>45514956</v>
+        <v>91418505</v>
       </c>
       <c r="I137" s="9">
-        <v>91418505</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+        <v>134921523</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D138" s="11"/>
-      <c r="E138" s="11" t="s">
-        <v>26</v>
+      <c r="E138" s="11">
+        <v>24153553</v>
       </c>
       <c r="F138" s="11">
-        <v>24153553</v>
+        <v>39204723</v>
       </c>
       <c r="G138" s="11">
-        <v>39204723</v>
-      </c>
-      <c r="H138" s="11">
         <v>47811183</v>
       </c>
+      <c r="H138" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I138" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -3186,7 +3192,7 @@
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3196,7 +3202,7 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3206,9 +3212,9 @@
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B142" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -3228,7 +3234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3238,7 +3244,7 @@
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="8" t="s">
         <v>24</v>
       </c>
@@ -3255,86 +3261,86 @@
       <c r="G144" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H144" s="9" t="s">
-        <v>26</v>
+      <c r="H144" s="9">
+        <v>97081423</v>
       </c>
       <c r="I144" s="9">
-        <v>97081423</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+        <v>141414003</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D145" s="11"/>
       <c r="E145" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F145" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G145" s="11">
+      <c r="F145" s="11">
         <v>60248960</v>
       </c>
-      <c r="H145" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I145" s="11">
+      <c r="G145" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H145" s="11">
         <v>151834646</v>
       </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I145" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C146" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D146" s="9"/>
-      <c r="E146" s="9" t="s">
-        <v>26</v>
+      <c r="E146" s="9">
+        <v>22025397</v>
       </c>
       <c r="F146" s="9">
-        <v>22025397</v>
+        <v>37561629</v>
       </c>
       <c r="G146" s="9">
-        <v>37561629</v>
+        <v>45506817</v>
       </c>
       <c r="H146" s="9">
-        <v>45506817</v>
+        <v>91418513</v>
       </c>
       <c r="I146" s="9">
-        <v>91418513</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+        <v>134921613</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C147" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D147" s="11"/>
-      <c r="E147" s="11" t="s">
-        <v>26</v>
+      <c r="E147" s="11">
+        <v>24153714</v>
       </c>
       <c r="F147" s="11">
-        <v>24153714</v>
+        <v>39203780</v>
       </c>
       <c r="G147" s="11">
-        <v>39203780</v>
-      </c>
-      <c r="H147" s="11">
         <v>47811779</v>
       </c>
+      <c r="H147" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I147" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3344,7 +3350,7 @@
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -3354,7 +3360,7 @@
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3364,9 +3370,9 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B151" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
@@ -3386,7 +3392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3396,31 +3402,31 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
       <c r="E153" s="9">
-        <v>76059</v>
+        <v>147670</v>
       </c>
       <c r="F153" s="9">
-        <v>147670</v>
+        <v>117190</v>
       </c>
       <c r="G153" s="9">
-        <v>117190</v>
+        <v>90431</v>
       </c>
       <c r="H153" s="9">
-        <v>90431</v>
+        <v>143994</v>
       </c>
       <c r="I153" s="9">
-        <v>143994</v>
-      </c>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+        <v>244273</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
@@ -3440,9 +3446,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
@@ -3462,9 +3468,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
@@ -3484,31 +3490,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
       <c r="E157" s="9">
-        <v>239145</v>
+        <v>321790</v>
       </c>
       <c r="F157" s="9">
-        <v>321790</v>
+        <v>285070</v>
       </c>
       <c r="G157" s="9">
-        <v>285070</v>
+        <v>369618</v>
       </c>
       <c r="H157" s="9">
-        <v>369618</v>
+        <v>1875595</v>
       </c>
       <c r="I157" s="9">
-        <v>1875595</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3150464</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
@@ -3528,53 +3534,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
       <c r="E159" s="9">
-        <v>505032</v>
+        <v>617466</v>
       </c>
       <c r="F159" s="9">
-        <v>617466</v>
+        <v>654157</v>
       </c>
       <c r="G159" s="9">
-        <v>654157</v>
+        <v>968508</v>
       </c>
       <c r="H159" s="9">
-        <v>968508</v>
+        <v>1043516</v>
       </c>
       <c r="I159" s="9">
-        <v>1043516</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1630427</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
       <c r="E160" s="11">
-        <v>378072</v>
+        <v>680721</v>
       </c>
       <c r="F160" s="11">
-        <v>680721</v>
+        <v>970834</v>
       </c>
       <c r="G160" s="11">
-        <v>970834</v>
+        <v>1561263</v>
       </c>
       <c r="H160" s="11">
-        <v>1561263</v>
+        <v>2616391</v>
       </c>
       <c r="I160" s="11">
-        <v>2616391</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4209333</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
@@ -3594,48 +3600,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
       <c r="E162" s="11">
-        <v>199542</v>
+        <v>389610</v>
       </c>
       <c r="F162" s="11">
-        <v>389610</v>
+        <v>393104</v>
       </c>
       <c r="G162" s="11">
-        <v>393104</v>
+        <v>640394</v>
       </c>
       <c r="H162" s="11">
-        <v>640394</v>
+        <v>1234305</v>
       </c>
       <c r="I162" s="11">
-        <v>1234305</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+        <v>995770</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C163" s="15"/>
       <c r="D163" s="15"/>
       <c r="E163" s="15">
-        <v>1397850</v>
+        <v>2157257</v>
       </c>
       <c r="F163" s="15">
-        <v>2157257</v>
+        <v>2420355</v>
       </c>
       <c r="G163" s="15">
-        <v>2420355</v>
+        <v>3630214</v>
       </c>
       <c r="H163" s="15">
-        <v>3630214</v>
+        <v>6913801</v>
       </c>
       <c r="I163" s="15">
-        <v>6913801</v>
+        <v>10230267</v>
       </c>
     </row>
   </sheetData>
